--- a/Data_2020/Excel_files_2020/Table 5/Table_5_Offenses_Known_Offenders_Race_and_Ethnicity_by_Bias_Motivation_2020.xlsx
+++ b/Data_2020/Excel_files_2020/Table 5/Table_5_Offenses_Known_Offenders_Race_and_Ethnicity_by_Bias_Motivation_2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE53FBE-847B-4B4B-A627-02A1D3DF9EF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898299A-58B1-A947-BEF2-C0C385430627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12840" yWindow="500" windowWidth="15780" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 5" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F4FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -655,6 +661,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,19 +1008,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="14" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="14" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1027,12 +1041,12 @@
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>62</v>
       </c>
@@ -1050,7 +1064,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>63</v>
       </c>
@@ -1068,7 +1082,7 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="18"/>
       <c r="C5" s="16"/>
@@ -1084,7 +1098,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="28" t="s">
         <v>2</v>
@@ -1108,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="49" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1162,7 @@
       </c>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1207,7 @@
       </c>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1238,7 +1252,7 @@
       </c>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -1283,7 +1297,7 @@
       </c>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1342,7 @@
       </c>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1387,7 @@
       </c>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1432,7 @@
       </c>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1477,7 @@
       </c>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1522,7 @@
       </c>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +1567,7 @@
       </c>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1612,7 @@
       </c>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1657,7 @@
       </c>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1688,7 +1702,7 @@
       </c>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1733,7 +1747,7 @@
       </c>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1792,7 @@
       </c>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1837,7 @@
       </c>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1868,7 +1882,7 @@
       </c>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1927,7 @@
       </c>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1958,7 +1972,7 @@
       </c>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +2017,7 @@
       </c>
       <c r="O26" s="20"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
@@ -2048,7 +2062,7 @@
       </c>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2107,7 @@
       </c>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2152,7 @@
       </c>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
@@ -2183,7 +2197,7 @@
       </c>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>26</v>
       </c>
@@ -2228,7 +2242,7 @@
       </c>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2287,7 @@
       </c>
       <c r="O32" s="20"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
@@ -2318,7 +2332,7 @@
       </c>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>49</v>
       </c>
@@ -2363,14 +2377,14 @@
       </c>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="4">
         <v>2185</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="34">
         <v>1367</v>
       </c>
       <c r="D35" s="4">
@@ -2408,7 +2422,7 @@
       </c>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -2453,14 +2467,14 @@
       </c>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="4">
         <v>1021</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="33">
         <v>939</v>
       </c>
       <c r="D37" s="8">
@@ -2498,7 +2512,7 @@
       </c>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>53</v>
       </c>
@@ -2543,7 +2557,7 @@
       </c>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>29</v>
       </c>
@@ -2588,7 +2602,7 @@
       </c>
       <c r="O39" s="20"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>30</v>
       </c>
@@ -2633,7 +2647,7 @@
       </c>
       <c r="O40" s="20"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2692,7 @@
       </c>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>55</v>
       </c>
@@ -2723,7 +2737,7 @@
       </c>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>56</v>
       </c>
@@ -2768,7 +2782,7 @@
       </c>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>57</v>
       </c>
@@ -2813,7 +2827,7 @@
       </c>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>31</v>
       </c>
@@ -2858,7 +2872,7 @@
       </c>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
@@ -2903,14 +2917,14 @@
       </c>
       <c r="O46" s="20"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="4">
         <v>294</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="34">
         <v>110</v>
       </c>
       <c r="D47" s="4">
@@ -2948,7 +2962,7 @@
       </c>
       <c r="O47" s="20"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
@@ -2993,7 +3007,7 @@
       </c>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>34</v>
       </c>
@@ -3038,7 +3052,7 @@
       </c>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
@@ -3083,7 +3097,7 @@
       </c>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>60</v>
       </c>
@@ -3101,7 +3115,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>61</v>
       </c>
@@ -3119,7 +3133,7 @@
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
